--- a/medicine/Psychotrope/Jean_Fritsch/Jean_Fritsch.xlsx
+++ b/medicine/Psychotrope/Jean_Fritsch/Jean_Fritsch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Fritsch (né le 19 avril 1858 à Hilsenheim[1]) est un écrivain français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Fritsch (né le 19 avril 1858 à Hilsenheim) est un écrivain français.
 Il fut distillateur, puis libraire-éditeur et dirigea longtemps la rédaction du Journal de la distillerie française. Il est l'auteur de nombreux ouvrages techniques.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Traité de la distillation des produits agricoles et industriels. Paris, Masson. 1890. (avec Émile Guillaumin). Les différentes distillations : malt, maïs, betteraves, topinambours, mélasses.
 Nouveau traité de la fabrication des liqueurs d'après les procédés les plus récents. P., Fritsch, 1904. Amédée Legrand, 1926. Historique de l'alcool et des liqueurs. La distillation et la rectification au point de vue de la fabrication des liqueurs. Les appareils à distiller et à rectifier ; le matériel de laboratoire. Des générateurs. L'eau. L'alcool. Des essences ou huiles essentielles. Les eaux aromatiques. Des esprits parfumés. Teintures et infusions. Le sucre. Des sirops. Les couleurs. Fabrication des liqueurs. Curaçao, amers et bitters, absinthe. Spiritueux aromatiques divers. Vin de liqueur. Apéritifs. Eaux de vie communes. Punchs et grogs. Fruits à l'eau de vie, conserves. Dictionnaire des principales substances employées par les liquoristes et les droguistes. Lois et ordonnances concernant la fabrication de la vente des liqueurs.
